--- a/tables/CZG_PhenT_Diet.xlsx
+++ b/tables/CZG_PhenT_Diet.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">0.021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1590</t>
+    <t xml:space="preserve">1.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1616</t>
   </si>
   <si>
     <t xml:space="preserve">Diet_HCOherbivore</t>
@@ -53,16 +53,16 @@
     <t xml:space="preserve">-0.015</t>
   </si>
   <si>
-    <t xml:space="preserve">2.631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2683</t>
+    <t xml:space="preserve">2.634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2679</t>
   </si>
   <si>
     <t xml:space="preserve">Diet_HCOomnivore</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.037</t>
+    <t xml:space="preserve"> 0.036</t>
   </si>
   <si>
     <t xml:space="preserve">0.031</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">Pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.036</t>
+    <t xml:space="preserve">-0.034</t>
   </si>
   <si>
     <t xml:space="preserve">0.039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3546</t>
+    <t xml:space="preserve">0.790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3741</t>
   </si>
 </sst>
 </file>
